--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3688560.780388784</v>
+        <v>3686068.831064943</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.90750774234413</v>
+        <v>413.9075077423441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>325.1859052051722</v>
       </c>
       <c r="I2" t="n">
-        <v>124.5932332748435</v>
+        <v>156.6862937548843</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607221</v>
+        <v>62.22601572607265</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>177.2262711387725</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.9882312337392</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2340345260132</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>157.6444810661239</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>124.6769503411105</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5970034220423</v>
+        <v>136.5970034220424</v>
       </c>
       <c r="H3" t="n">
-        <v>105.0256931046871</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031446</v>
+        <v>63.69429571031459</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870424</v>
+        <v>53.80849853870446</v>
       </c>
       <c r="S3" t="n">
-        <v>157.8170057799447</v>
+        <v>157.8170057799448</v>
       </c>
       <c r="T3" t="n">
         <v>197.1557544486214</v>
@@ -795,7 +795,7 @@
         <v>225.8922693348453</v>
       </c>
       <c r="V3" t="n">
-        <v>85.91866073599039</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>32.34716816236671</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>213.1097037866937</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>122.4298228031426</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>351.0518424621066</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>224.7068582302607</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116.8939737989136</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>74.52922194059501</v>
       </c>
       <c r="G6" t="n">
         <v>136.0669836643703</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
         <v>147.9721212459916</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>163.9594210503732</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>184.6739744009184</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>103.2789529957477</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>196.6997841156786</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>182.9661877488788</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172153</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>29.249233057517</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1904,13 +1904,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>154.8277789621973</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656053</v>
       </c>
     </row>
     <row r="30">
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576151</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>139.4837053550539</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1714.993863269185</v>
+        <v>962.8652392502566</v>
       </c>
       <c r="C2" t="n">
-        <v>1346.031346328774</v>
+        <v>962.8652392502566</v>
       </c>
       <c r="D2" t="n">
-        <v>987.7656477220232</v>
+        <v>962.8652392502566</v>
       </c>
       <c r="E2" t="n">
-        <v>601.9773951237789</v>
+        <v>962.8652392502566</v>
       </c>
       <c r="F2" t="n">
-        <v>190.9914903341714</v>
+        <v>955.9197385010532</v>
       </c>
       <c r="G2" t="n">
-        <v>176.943502715642</v>
+        <v>537.8313468421196</v>
       </c>
       <c r="H2" t="n">
-        <v>176.943502715642</v>
+        <v>209.3607355237638</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297171</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710346</v>
+        <v>156.4961545710335</v>
       </c>
       <c r="K2" t="n">
-        <v>435.2148351005033</v>
+        <v>435.2148351005011</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311676</v>
+        <v>833.2666318311643</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537229</v>
+        <v>1292.782497537225</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.101812813649</v>
+        <v>1745.101812813643</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132819</v>
+        <v>2127.026478132812</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935774</v>
+        <v>2415.315960935767</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648586</v>
+        <v>2554.587596648577</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.733035309119</v>
+        <v>2491.73303530911</v>
       </c>
       <c r="S2" t="n">
-        <v>2491.733035309119</v>
+        <v>2312.7165998154</v>
       </c>
       <c r="T2" t="n">
-        <v>2491.733035309119</v>
+        <v>2093.536568266169</v>
       </c>
       <c r="U2" t="n">
-        <v>2491.733035309119</v>
+        <v>1839.764816219691</v>
       </c>
       <c r="V2" t="n">
-        <v>2491.733035309119</v>
+        <v>1508.70192887612</v>
       </c>
       <c r="W2" t="n">
-        <v>2491.733035309119</v>
+        <v>1508.70192887612</v>
       </c>
       <c r="X2" t="n">
-        <v>2491.733035309119</v>
+        <v>1349.465079314378</v>
       </c>
       <c r="Y2" t="n">
-        <v>2101.593703333307</v>
+        <v>1349.465079314378</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.6522061135607</v>
+        <v>882.5656474219577</v>
       </c>
       <c r="C3" t="n">
-        <v>814.1991768324337</v>
+        <v>708.1126181408307</v>
       </c>
       <c r="D3" t="n">
-        <v>665.2647671711825</v>
+        <v>559.1782084795794</v>
       </c>
       <c r="E3" t="n">
-        <v>506.027312165727</v>
+        <v>399.9407534741239</v>
       </c>
       <c r="F3" t="n">
-        <v>359.492754192612</v>
+        <v>253.4061955010089</v>
       </c>
       <c r="G3" t="n">
-        <v>221.5159830592359</v>
+        <v>115.4294243676327</v>
       </c>
       <c r="H3" t="n">
-        <v>115.4294243676328</v>
+        <v>115.4294243676327</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297171</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="J3" t="n">
-        <v>120.1765123687514</v>
+        <v>120.1765123687509</v>
       </c>
       <c r="K3" t="n">
-        <v>364.8742147270553</v>
+        <v>364.8742147270543</v>
       </c>
       <c r="L3" t="n">
-        <v>755.3048694066763</v>
+        <v>755.3048694066745</v>
       </c>
       <c r="M3" t="n">
-        <v>1262.898249633826</v>
+        <v>1262.898249633824</v>
       </c>
       <c r="N3" t="n">
-        <v>1799.633129631804</v>
+        <v>1799.6331296318</v>
       </c>
       <c r="O3" t="n">
-        <v>2067.084785635562</v>
+        <v>2224.225006908673</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.854132153976</v>
+        <v>2390.854132153968</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648586</v>
+        <v>2554.587596648577</v>
       </c>
       <c r="R3" t="n">
-        <v>2500.235577922622</v>
+        <v>2500.235577922613</v>
       </c>
       <c r="S3" t="n">
-        <v>2340.824460973183</v>
+        <v>2340.824460973174</v>
       </c>
       <c r="T3" t="n">
-        <v>2141.677234257404</v>
+        <v>2141.677234257395</v>
       </c>
       <c r="U3" t="n">
-        <v>1913.503224828267</v>
+        <v>1913.503224828258</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.716698832317</v>
+        <v>1678.351116596515</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.479342104115</v>
+        <v>1424.113759868314</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.627841898583</v>
+        <v>1216.262259662781</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.867543133629</v>
+        <v>1008.501960897827</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>230.6556066655959</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="C4" t="n">
-        <v>230.6556066655959</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="D4" t="n">
-        <v>230.6556066655959</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="E4" t="n">
-        <v>197.9816994308821</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="F4" t="n">
-        <v>51.09175193297171</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="G4" t="n">
-        <v>51.09175193297171</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="H4" t="n">
-        <v>51.09175193297171</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="I4" t="n">
-        <v>51.09175193297171</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297171</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304570771867</v>
+        <v>101.0304570771861</v>
       </c>
       <c r="L4" t="n">
-        <v>220.461240970328</v>
+        <v>220.4612409703271</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486113</v>
+        <v>356.7733802486098</v>
       </c>
       <c r="N4" t="n">
-        <v>495.278937949322</v>
+        <v>495.27893794932</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455666</v>
+        <v>607.1949427455642</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071434</v>
+        <v>679.4377367071405</v>
       </c>
       <c r="Q4" t="n">
-        <v>679.4377367071434</v>
+        <v>679.4377367071405</v>
       </c>
       <c r="R4" t="n">
-        <v>679.4377367071434</v>
+        <v>679.4377367071405</v>
       </c>
       <c r="S4" t="n">
-        <v>679.4377367071434</v>
+        <v>464.1754096498742</v>
       </c>
       <c r="T4" t="n">
-        <v>679.4377367071434</v>
+        <v>340.5089219699321</v>
       </c>
       <c r="U4" t="n">
-        <v>679.4377367071434</v>
+        <v>340.5089219699321</v>
       </c>
       <c r="V4" t="n">
-        <v>679.4377367071434</v>
+        <v>340.5089219699321</v>
       </c>
       <c r="W4" t="n">
-        <v>679.4377367071434</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="X4" t="n">
-        <v>451.448185809126</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="Y4" t="n">
-        <v>230.6556066655959</v>
+        <v>51.09175193297154</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1531.908453105372</v>
+        <v>775.2510328661098</v>
       </c>
       <c r="C5" t="n">
-        <v>1162.945936164961</v>
+        <v>775.2510328661098</v>
       </c>
       <c r="D5" t="n">
-        <v>804.6802375582104</v>
+        <v>775.2510328661098</v>
       </c>
       <c r="E5" t="n">
-        <v>418.8919849599661</v>
+        <v>389.4627802678655</v>
       </c>
       <c r="F5" t="n">
-        <v>64.29416429117158</v>
+        <v>382.5172795186621</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>369.4699017954936</v>
       </c>
       <c r="H5" t="n">
         <v>51.2467865680031</v>
@@ -4565,25 +4565,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>72.4810365613864</v>
+        <v>239.8866855817394</v>
       </c>
       <c r="K5" t="n">
-        <v>155.0441911359788</v>
+        <v>322.4498401563318</v>
       </c>
       <c r="L5" t="n">
-        <v>668.8456576791476</v>
+        <v>875.263098402531</v>
       </c>
       <c r="M5" t="n">
-        <v>1300.563468662459</v>
+        <v>1061.962511227939</v>
       </c>
       <c r="N5" t="n">
-        <v>1927.871136722306</v>
+        <v>1340.687116518882</v>
       </c>
       <c r="O5" t="n">
-        <v>2098.040162039265</v>
+        <v>1887.84832128596</v>
       </c>
       <c r="P5" t="n">
-        <v>2527.35520837856</v>
+        <v>2317.163367625254</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.647625145306</v>
+        <v>2152.432587642134</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.647625145306</v>
+        <v>2152.432587642134</v>
       </c>
       <c r="W5" t="n">
-        <v>2308.647625145306</v>
+        <v>1925.455963167123</v>
       </c>
       <c r="X5" t="n">
-        <v>2308.647625145306</v>
+        <v>1551.990204906043</v>
       </c>
       <c r="Y5" t="n">
-        <v>1918.508293169494</v>
+        <v>1161.850872930232</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.6684709946088</v>
+        <v>893.4159553857312</v>
       </c>
       <c r="C6" t="n">
-        <v>790.2154417134818</v>
+        <v>718.9629261046042</v>
       </c>
       <c r="D6" t="n">
-        <v>641.2810320522306</v>
+        <v>570.0285164433529</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>410.7910614378974</v>
       </c>
       <c r="F6" t="n">
         <v>335.5090190736601</v>
@@ -4644,52 +4644,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>51.2467865680031</v>
+        <v>169.9060384248988</v>
       </c>
       <c r="K6" t="n">
-        <v>229.0013446667966</v>
+        <v>499.3344427307086</v>
       </c>
       <c r="L6" t="n">
-        <v>733.3628845329151</v>
+        <v>1003.695982596827</v>
       </c>
       <c r="M6" t="n">
-        <v>1367.541868311954</v>
+        <v>1183.193318951432</v>
       </c>
       <c r="N6" t="n">
-        <v>1566.198609964618</v>
+        <v>1381.850060604097</v>
       </c>
       <c r="O6" t="n">
-        <v>2115.634618717341</v>
+        <v>1931.28606935682</v>
       </c>
       <c r="P6" t="n">
-        <v>2539.602387198178</v>
+        <v>2331.625872339687</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2541.227428802342</v>
       </c>
       <c r="S6" t="n">
-        <v>2412.87253926279</v>
+        <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2215.883243422878</v>
+        <v>2194.771343825064</v>
       </c>
       <c r="U6" t="n">
-        <v>1987.744455934043</v>
+        <v>1966.63255633623</v>
       </c>
       <c r="V6" t="n">
-        <v>1752.592347702301</v>
+        <v>1731.480448104488</v>
       </c>
       <c r="W6" t="n">
-        <v>1498.354990974099</v>
+        <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1290.503490768566</v>
+        <v>1269.391591170753</v>
       </c>
       <c r="Y6" t="n">
-        <v>1082.743192003612</v>
+        <v>1061.631292405799</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>830.3888888838177</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C7" t="n">
-        <v>664.7733120652589</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D7" t="n">
-        <v>514.6566726529231</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>366.7435790705301</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>219.8536315726197</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
         <v>51.2467865680031</v>
@@ -4747,28 +4747,28 @@
         <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>1051.181468027348</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="S7" t="n">
-        <v>1051.181468027348</v>
+        <v>713.2632219991558</v>
       </c>
       <c r="T7" t="n">
-        <v>1051.181468027348</v>
+        <v>713.2632219991558</v>
       </c>
       <c r="U7" t="n">
-        <v>1051.181468027348</v>
+        <v>713.2632219991558</v>
       </c>
       <c r="V7" t="n">
-        <v>1051.181468027348</v>
+        <v>458.578733793269</v>
       </c>
       <c r="W7" t="n">
-        <v>1051.181468027348</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="X7" t="n">
-        <v>1051.181468027348</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y7" t="n">
-        <v>830.3888888838177</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>983.6388807631536</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>614.6763638227419</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>614.6763638227419</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>228.8881112244977</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>221.9426104752942</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>1373.778212738965</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>983.6388807631536</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143493</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>884.908532145821</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701986</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
         <v>219.2332512597245</v>
@@ -4960,52 +4960,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1349.048382530606</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1126.069901725341</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>836.9515642291789</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>836.9515642291789</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>836.9515642291789</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>608.9620133311615</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>388.1694341876314</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,10 +5036,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,43 +5273,43 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5653,16 +5653,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6224,7 +6224,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6443,22 +6443,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6488,19 +6488,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591808</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6683,28 +6683,28 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6725,10 +6725,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6959,16 +6959,16 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908939</v>
@@ -7087,10 +7087,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,40 +7166,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,10 +7208,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,25 +7397,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7436,16 +7436,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7640,10 +7640,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,25 +7655,25 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7688,7 +7688,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>555.8158034133954</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>555.8158034133954</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2239.024748160891</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2019.423283183833</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1730.34805652803</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1475.663568322143</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1186.246398285183</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>958.2568473871653</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>737.4642682436352</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8070,10 +8070,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>235.1348230412598</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>159.7352724044648</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>378.2553643453693</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>85.24282060501133</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>111.2593317529661</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>459.2743913378116</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>294.5961368238067</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780638</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>162.0073097921338</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>-1.777645612199493e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>131.6952193743937</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520725</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>41.54258064659072</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710697</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="G2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="I2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055057</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161991</v>
+        <v>548460.0746161967</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299246</v>
+        <v>225009.9816299268</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230266</v>
+        <v>291685.0095230265</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.1292843806</v>
+        <v>167098.1292843801</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243594798</v>
+        <v>498.761924360003</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198057</v>
+        <v>247452.3619198064</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
@@ -26424,40 +26424,40 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719678</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719687</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.36846171969</v>
+        <v>7507.368461719679</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
+        <v>7507.36846171964</v>
+      </c>
+      <c r="K4" t="n">
         <v>7507.36846171968</v>
       </c>
-      <c r="K4" t="n">
-        <v>7507.368461719676</v>
-      </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171971</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719697</v>
+        <v>7507.368461719651</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719689</v>
+        <v>7507.36846171971</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719658</v>
+        <v>7507.368461719677</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371946045</v>
+        <v>80023.31371946028</v>
       </c>
       <c r="C5" t="n">
         <v>85512.93677905216</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-95946.06888439553</v>
+        <v>-95946.06888439384</v>
       </c>
       <c r="C6" t="n">
-        <v>271154.1283019398</v>
+        <v>271154.1283019375</v>
       </c>
       <c r="D6" t="n">
         <v>262253.0358614536</v>
       </c>
       <c r="E6" t="n">
-        <v>150673.9297953333</v>
+        <v>150639.1918698974</v>
       </c>
       <c r="F6" t="n">
-        <v>658159.3714198791</v>
+        <v>658124.6334944433</v>
       </c>
       <c r="G6" t="n">
-        <v>658159.3714198793</v>
+        <v>658124.6334944434</v>
       </c>
       <c r="H6" t="n">
-        <v>658159.371419879</v>
+        <v>658124.6334944436</v>
       </c>
       <c r="I6" t="n">
-        <v>658159.3714198791</v>
+        <v>658124.6334944433</v>
       </c>
       <c r="J6" t="n">
-        <v>491061.2421354985</v>
+        <v>491026.5042100631</v>
       </c>
       <c r="K6" t="n">
-        <v>657660.6094955195</v>
+        <v>657625.8715700833</v>
       </c>
       <c r="L6" t="n">
-        <v>658159.371419879</v>
+        <v>658124.6334944437</v>
       </c>
       <c r="M6" t="n">
-        <v>525552.0776909522</v>
+        <v>525517.3397655168</v>
       </c>
       <c r="N6" t="n">
-        <v>658159.3714198794</v>
+        <v>658124.6334944434</v>
       </c>
       <c r="O6" t="n">
-        <v>658159.3714198791</v>
+        <v>658124.6334944434</v>
       </c>
       <c r="P6" t="n">
-        <v>658159.3714198789</v>
+        <v>658124.6334944433</v>
       </c>
     </row>
   </sheetData>
@@ -26710,16 +26710,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817407</v>
+        <v>347.063405981739</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621464</v>
+        <v>638.6468991621442</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
@@ -26799,7 +26799,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817407</v>
+        <v>347.063405981739</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563244</v>
+        <v>246.4126943563261</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794743</v>
+        <v>340.588791779474</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621464</v>
+        <v>638.6468991621442</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937892356</v>
+        <v>1.937932937894516</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621464</v>
+        <v>638.6468991621442</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937892356</v>
+        <v>1.937932937894288</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621464</v>
+        <v>638.6468991621442</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937892356</v>
+        <v>1.937932937894516</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1859052051722</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>32.09306048004051</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387723</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.9882312337391</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2340345260132</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>212.0866196123451</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>41.85623330875688</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.0256931046871</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>146.8819264134349</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>114.0867944842025</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3651273148851</v>
@@ -27558,7 +27558,7 @@
         <v>136.6293971077895</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601709</v>
+        <v>49.11144063601731</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.75546894845154</v>
+        <v>33.7554689484518</v>
       </c>
       <c r="R4" t="n">
-        <v>149.1528076724861</v>
+        <v>149.1528076724862</v>
       </c>
       <c r="S4" t="n">
-        <v>213.1097037866936</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.2714943330124</v>
+        <v>102.8416715298698</v>
       </c>
       <c r="U4" t="n">
         <v>286.284891972296</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>55.82420327960483</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>124.5341104871523</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.63920985095378</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>70.53999045278887</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>3.287400048254625</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
@@ -27831,10 +27831,10 @@
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>101.8490239356726</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>308.2687497772063</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>173.0313165627905</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>11.69627261285873</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193757</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28624,13 +28624,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>5.464171643889758e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790916</v>
+        <v>1.395229772790909</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059497</v>
+        <v>14.28889691059491</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552185</v>
+        <v>53.78959581552159</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284131</v>
+        <v>118.4183829284126</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106527</v>
+        <v>177.4784592106518</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697027</v>
+        <v>220.1777223697016</v>
       </c>
       <c r="M2" t="n">
-        <v>244.9901398415732</v>
+        <v>244.990139841572</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335154</v>
+        <v>248.9543364335142</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803257</v>
+        <v>235.0805203803245</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645499</v>
+        <v>200.6357853645489</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264752</v>
+        <v>150.6691191264744</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507748</v>
+        <v>87.64310221507704</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747304</v>
+        <v>31.79379844747288</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392239</v>
+        <v>6.107618330392209</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232733</v>
+        <v>0.1116183818232727</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682724</v>
+        <v>0.7465137411682687</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809369</v>
+        <v>7.209751131809334</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110061</v>
+        <v>25.70233714110049</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502526</v>
+        <v>70.52917762502491</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832995</v>
+        <v>120.5455982832989</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0884331426988</v>
+        <v>162.088433142698</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600487</v>
+        <v>189.1495562600477</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821815</v>
+        <v>194.1557821821806</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857688</v>
+        <v>177.6146092857679</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323871</v>
+        <v>142.5513827323863</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351492</v>
+        <v>95.29182422351445</v>
       </c>
       <c r="R3" t="n">
-        <v>46.3493356139389</v>
+        <v>46.34933561393867</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389312</v>
+        <v>13.86616532389305</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200184</v>
+        <v>3.00897424620017</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949162</v>
+        <v>0.04911274612949139</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736307</v>
+        <v>0.6258520435736276</v>
       </c>
       <c r="H4" t="n">
-        <v>5.56439362377283</v>
+        <v>5.564393623772802</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946883</v>
+        <v>18.82107781946873</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065569</v>
+        <v>44.24773948065547</v>
       </c>
       <c r="K4" t="n">
-        <v>72.7126283351909</v>
+        <v>72.71262833519053</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730143</v>
+        <v>93.04713018730098</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218283</v>
+        <v>98.10515261218235</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886302</v>
+        <v>95.77243135886255</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711649</v>
+        <v>88.46134157711604</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821435</v>
+        <v>75.69395988821398</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324284</v>
+        <v>52.40657430324259</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468342</v>
+        <v>28.14058370468328</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027863</v>
+        <v>10.90689425027858</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269148</v>
+        <v>2.674095095269136</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492535</v>
+        <v>0.03413738419492518</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,16 +31835,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,7 +32093,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,16 +33500,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>152.5685698206133</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935738006</v>
+        <v>106.4690935738</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368369</v>
+        <v>281.5340207368359</v>
       </c>
       <c r="L2" t="n">
-        <v>402.0725219501659</v>
+        <v>402.0725219501649</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071329</v>
+        <v>464.1574401071317</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489086</v>
+        <v>456.8881972489074</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213843</v>
+        <v>385.7824902213831</v>
       </c>
       <c r="P2" t="n">
-        <v>291.201497780763</v>
+        <v>291.201497780762</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119303</v>
+        <v>140.6784199119296</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.7825862987674</v>
+        <v>69.78258629876706</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215191</v>
+        <v>247.1693963215185</v>
       </c>
       <c r="L3" t="n">
-        <v>394.3743986662838</v>
+        <v>394.374398666283</v>
       </c>
       <c r="M3" t="n">
-        <v>512.7205860880302</v>
+        <v>512.7205860880293</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1564444424017</v>
+        <v>542.1564444424008</v>
       </c>
       <c r="O3" t="n">
-        <v>270.1531878825841</v>
+        <v>428.880684118053</v>
       </c>
       <c r="P3" t="n">
-        <v>327.039743957994</v>
+        <v>168.3122477225209</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.3873378733425</v>
+        <v>165.387337873342</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930805</v>
+        <v>50.44313650930768</v>
       </c>
       <c r="L4" t="n">
-        <v>120.6371554476176</v>
+        <v>120.6371554476171</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6890295740234</v>
+        <v>137.6890295740229</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380916</v>
+        <v>139.9046037380911</v>
       </c>
       <c r="O4" t="n">
-        <v>113.0464694911562</v>
+        <v>113.0464694911557</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310784</v>
+        <v>72.97251915310747</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
         <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>518.9913803466352</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>281.5400053443875</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>179.55005868565</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
         <v>200.663375406732</v>
@@ -35030,10 +35030,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>404.3836393766338</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215487</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>553.2044093850077</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,7 +35741,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>25.73094315394658</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
